--- a/examples/PersonSchema/personinfo/excel/personinfo.xlsx
+++ b/examples/PersonSchema/personinfo/excel/personinfo.xlsx
@@ -9,18 +9,24 @@
   <sheets>
     <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Person" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Organization" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Place" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Address" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Event" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Concept" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="DiagnosisConcept" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="ProcedureConcept" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Relationship" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="FamilialRelationship" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="EmploymentEvent" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="MedicalEvent" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Container" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="NewsEvent" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Organization" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Place" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Address" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Event" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Concept" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="DiagnosisConcept" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ProcedureConcept" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="IntegerPrimaryKeyObject" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="OperationProcedureConcept" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="ImagingProcedureConcept" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="code system" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Relationship" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="FamilialRelationship" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="InterPersonalRelationship" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="EmploymentEvent" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MedicalEvent" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Container" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +458,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>depicted_by</t>
         </is>
       </c>
     </row>
@@ -467,6 +473,216 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>code system</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>mappings</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>depicted_by</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>int_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>code system</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>mappings</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>depicted_by</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>code system</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>mappings</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>depicted_by</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -502,7 +718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -548,13 +764,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>started_at_time</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ended_at_time</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>related_to</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,21 +827,82 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>salary</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>started_at_time</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>ended_at_time</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>duration</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>is_current</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>procedure</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>in_location</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>started_at_time</t>
+        </is>
+      </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>ended_at_time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>is_current</t>
         </is>
       </c>
@@ -594,171 +912,99 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>in_location</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>procedure</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>started_at_time</t>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>birth_date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>age_in_years</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>gender</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ended_at_time</t>
+          <t>current_address</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>duration</t>
+          <t>telephone</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>is_current</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>persons</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>organizations</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>primary_email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>birth_date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>age_in_years</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>current_address</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
           <t>has_employment_history</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>has_familial_relationships</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_interpersonal_relationships</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
         <is>
           <t>has_medical_history</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>aliases</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>has_news_events</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>image</t>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>depicted_by</t>
         </is>
       </c>
     </row>
@@ -772,13 +1018,95 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>persons</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>organizations</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>places</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>headline</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>started_at_time</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ended_at_time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>is_current</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,268 +1127,277 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>founding_location</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+          <t>founding location</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>categories</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>min_salary</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>aliases</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_news_events</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>depicted_by</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"non profit,for profit,offshore,charity,shell company,loose organization"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>depicted_by</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>aliases</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>street</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>postal_code</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>started_at_time</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ended_at_time</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>is_current</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>code system</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>mappings</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>depicted_by</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>code system</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>mappings</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>aliases</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>street</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>postal_code</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>started_at_time</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ended_at_time</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>duration</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>is_current</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>image</t>
+          <t>depicted_by</t>
         </is>
       </c>
     </row>
